--- a/Output Data Structure.xlsx
+++ b/Output Data Structure.xlsx
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1569,7 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6">
@@ -8289,6 +8289,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
